--- a/data/trans_camb/P55_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.313115350189865</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.948876798639135</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.34389286390374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,84; 19,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,81; 23,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,89; 17,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.31605363106437</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.06056065002895</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.73409433518537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.11843804673576</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.70281548949494</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.98245670591464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-30,82; 30,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; 34,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,7; 24,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.02937549860653048</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.06550787730235423</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01741277610602341</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>31,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2916460096727982</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1791134780119956</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1548665877290793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 60,6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,37; 16,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 40,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2657189739362584</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3501023462870843</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2465788782095187</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>64,57%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,78%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>28,06%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>30.25445940768254</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.477729680639273</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.91050256721929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 209,52</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-23,42; 24,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 92,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.355426104100957</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.71425106165611</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.693577326723445</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>59.00494584767381</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.17242099278143</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>37.96362499690291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-20,6; 14,08</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 12,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 9,47</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.6262781354622353</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01978594585607019</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.263542001452796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,55%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.01242913831577457</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2428978516903612</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06737958133272365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-23,21; 19,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 18,27</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,81; 12,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2.035142158013591</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2424554943255927</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8609936342828962</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.943764000061769</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.761409330035391</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.420998522782613</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 16,85</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 12,27</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 10,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.75837256962753</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.31553153181097</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.6690360522856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,57%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.59893995531267</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>13.71363816313834</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.144988435439405</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 22,62</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-19,33; 20,14</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; 15,18</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.07332967644220217</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02333359676284602</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01827756489180497</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-10,51</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2626816121722038</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1291304218404399</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1316716925747678</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; 21,29</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-29,54; 11,08</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 9,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1642031686212164</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.203958479106052</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1246555475925186</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-16,6%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,59%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.18050932955063</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.485696379079293</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.338116038613324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-15,14; 35,95</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-43,1; 21,17</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-21,75; 17,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.163547276000484</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.67965450499286</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.818098290483364</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-21,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-14,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>16.84962119847312</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.86316338517426</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.30199189980366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-19,78; 11,9</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-45,73; 3,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-31,42; 2,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.05103358580194802</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.02235413321853084</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.0180949519595337</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-4,45%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-27,41%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-18,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.09100570645793678</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2032003565441554</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.09867369788447575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-21,61; 15,09</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-54,72; 3,6</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-37,88; 2,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2279518898301592</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1968699123657839</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1489589911593827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-4,69</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>5.288612992606268</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-8.130589138180666</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-1.204362751802157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 17,63</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 2,48</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 6,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-11.27410176791883</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-27.10944454123008</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-14.8002309999459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>21.12533526661528</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>13.90338269569618</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>10.86197782252068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 26,84</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 3,61</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 9,4</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.07673980925529293</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.1298648179467657</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.01817796304180087</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1449930668147878</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.4015550079242415</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.2033202069717598</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.3558890917435773</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.2883644557204796</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1810694204502773</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-3.375772191511794</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-21.1090510248416</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-14.75164091674537</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-18.92692462766005</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-44.00072920665659</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-30.93555869095855</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>12.77781605465949</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>3.348418555205445</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>1.651564524202367</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.0384691785696284</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.273480463725496</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.1804817778098097</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2056659138304567</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.5367285789217475</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3673352537493521</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.1572505620891623</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.04535482680138186</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.01828895828393875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>5.828317629679713</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-4.199339813439085</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.6405573835000733</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-3.652187457624811</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-11.59979732840758</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.637815104788121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>16.71644195069828</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.815220705782266</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>6.15781547174471</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.07941064242978552</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.05806552230705071</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.008793477416356337</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.04678181852729715</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1565981539027211</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.07358287162699439</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2501787611571418</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.0382053118184864</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.08878869987101645</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
